--- a/BackTest/2020-01-14 BackTest BSV.xlsx
+++ b/BackTest/2020-01-14 BackTest BSV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -748,17 +748,11 @@
         <v>286.18486223</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>181100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -791,11 +785,7 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -828,11 +818,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -865,11 +851,7 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -902,11 +884,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -939,11 +917,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -976,11 +950,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1013,11 +983,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1050,11 +1016,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1087,11 +1049,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1124,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1161,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1198,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1235,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1272,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1247,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1346,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1383,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1420,11 +1346,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1457,11 +1379,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1494,11 +1412,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1531,11 +1445,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1568,11 +1478,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1605,11 +1511,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1642,11 +1544,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1679,11 +1577,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1716,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1753,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1790,11 +1676,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1827,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1864,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1901,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1938,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1975,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2012,11 +1874,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2049,11 +1907,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2086,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2123,11 +1973,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2160,11 +2006,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2197,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2234,11 +2072,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2271,11 +2105,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2308,11 +2138,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2345,11 +2171,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2382,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2419,11 +2237,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2456,11 +2270,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2493,11 +2303,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2530,11 +2336,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2567,11 +2369,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2604,11 +2402,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2641,11 +2435,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2678,11 +2468,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2715,11 +2501,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2752,11 +2534,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2789,11 +2567,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2826,11 +2600,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2863,11 +2633,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2900,11 +2666,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2937,11 +2699,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2974,11 +2732,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3011,11 +2765,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3048,11 +2798,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3085,11 +2831,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3122,11 +2864,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3159,11 +2897,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3196,11 +2930,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3233,11 +2963,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3270,11 +2996,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3307,11 +3029,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3344,11 +3062,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3381,11 +3095,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3418,11 +3128,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3455,11 +3161,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3492,11 +3194,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3529,11 +3227,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3566,11 +3260,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3603,11 +3293,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3640,11 +3326,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3677,11 +3359,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3714,11 +3392,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3751,11 +3425,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3788,11 +3458,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3825,11 +3491,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3862,11 +3524,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3899,11 +3557,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3936,11 +3590,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3973,11 +3623,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4010,11 +3656,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4047,11 +3689,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4084,11 +3722,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4121,11 +3755,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4158,11 +3788,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4195,11 +3821,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4232,11 +3854,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4269,11 +3887,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4306,11 +3920,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4343,11 +3953,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4380,11 +3986,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4417,11 +4019,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4454,11 +4052,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4491,11 +4085,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4528,11 +4118,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4565,11 +4151,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4602,11 +4184,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4639,11 +4217,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4676,11 +4250,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4713,11 +4283,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4750,11 +4316,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4787,11 +4349,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4824,11 +4382,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4861,11 +4415,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4898,11 +4448,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4935,11 +4481,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4972,11 +4514,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5009,11 +4547,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5046,11 +4580,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5083,11 +4613,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5120,11 +4646,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5157,11 +4679,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5194,11 +4712,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5231,11 +4745,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5268,11 +4778,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5305,11 +4811,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5342,11 +4844,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5379,11 +4877,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5416,11 +4910,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5453,11 +4943,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5490,11 +4976,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5527,11 +5009,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5564,11 +5042,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5601,11 +5075,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5638,11 +5108,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5675,11 +5141,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5712,11 +5174,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5749,11 +5207,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5786,11 +5240,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5823,11 +5273,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5860,11 +5306,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5897,11 +5339,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5934,11 +5372,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5971,11 +5405,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6008,11 +5438,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6045,11 +5471,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6082,11 +5504,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6119,11 +5537,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6156,11 +5570,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6193,11 +5603,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6230,11 +5636,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6267,11 +5669,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6304,11 +5702,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6341,11 +5735,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6378,11 +5768,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6415,11 +5801,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6452,11 +5834,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6489,11 +5867,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6526,11 +5900,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6563,11 +5933,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6600,11 +5966,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6637,11 +5999,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6674,11 +6032,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6711,11 +6065,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6748,11 +6098,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6785,11 +6131,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6822,11 +6164,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6859,11 +6197,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6896,11 +6230,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6933,11 +6263,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6970,11 +6296,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7007,11 +6329,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7044,11 +6362,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7081,11 +6395,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7118,11 +6428,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7155,11 +6461,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7192,11 +6494,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7229,11 +6527,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7266,11 +6560,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7303,11 +6593,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7340,11 +6626,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7377,11 +6659,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7414,11 +6692,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7451,11 +6725,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7488,11 +6758,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7525,11 +6791,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7562,11 +6824,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7599,11 +6857,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7636,11 +6890,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7673,11 +6923,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7710,11 +6956,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7747,11 +6989,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7784,11 +7022,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7821,11 +7055,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7858,11 +7088,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7895,11 +7121,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7932,11 +7154,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7969,11 +7187,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8006,11 +7220,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8043,11 +7253,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8080,11 +7286,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8117,11 +7319,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8154,11 +7352,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8191,11 +7385,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8228,11 +7418,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8265,11 +7451,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8302,11 +7484,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8339,11 +7517,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8376,11 +7550,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8413,11 +7583,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8450,11 +7616,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8487,11 +7649,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8524,11 +7682,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8561,11 +7715,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8598,11 +7748,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8635,11 +7781,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8672,11 +7814,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8709,11 +7847,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8746,11 +7880,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8783,11 +7913,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8820,11 +7946,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8857,11 +7979,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8894,11 +8012,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8931,11 +8045,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8968,11 +8078,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9005,11 +8111,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9042,11 +8144,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9079,11 +8177,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9116,11 +8210,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9153,11 +8243,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9190,11 +8276,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9227,11 +8309,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9264,11 +8342,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9301,11 +8375,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9338,11 +8408,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9375,11 +8441,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9412,11 +8474,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9449,11 +8507,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9486,11 +8540,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9523,11 +8573,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9560,11 +8606,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9597,11 +8639,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9634,11 +8672,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9671,11 +8705,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9708,11 +8738,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9745,11 +8771,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9782,11 +8804,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9819,11 +8837,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9856,11 +8870,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9893,11 +8903,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9926,16 +8932,14 @@
         <v>1350.67203279</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
       <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
@@ -9961,7 +8965,7 @@
         <v>1350.67203279</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9994,7 +8998,7 @@
         <v>1346.27203279</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10456,7 +9460,7 @@
         <v>892.6544542699999</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10489,7 +9493,7 @@
         <v>895.7112542699998</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10522,7 +9526,7 @@
         <v>845.9936542699999</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10555,7 +9559,7 @@
         <v>838.3365542699999</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10786,7 +9790,7 @@
         <v>887.8009542699999</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -11116,7 +10120,7 @@
         <v>612.7154542699998</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11182,7 +10186,7 @@
         <v>781.5466542699999</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11215,7 +10219,7 @@
         <v>751.0487542699999</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11248,7 +10252,7 @@
         <v>700.5745542699999</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11314,7 +10318,7 @@
         <v>824.2042477699998</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11347,7 +10351,7 @@
         <v>826.4546477699998</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -12898,7 +11902,7 @@
         <v>1409.85181402</v>
       </c>
       <c r="H349" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12931,7 +11935,7 @@
         <v>1449.81211402</v>
       </c>
       <c r="H350" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12964,7 +11968,7 @@
         <v>1449.81211402</v>
       </c>
       <c r="H351" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12997,7 +12001,7 @@
         <v>1486.02941402</v>
       </c>
       <c r="H352" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13030,7 +12034,7 @@
         <v>1631.71665611</v>
       </c>
       <c r="H353" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13063,7 +12067,7 @@
         <v>1599.66725611</v>
       </c>
       <c r="H354" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13096,7 +12100,7 @@
         <v>1529.05385611</v>
       </c>
       <c r="H355" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13129,7 +12133,7 @@
         <v>1565.93885611</v>
       </c>
       <c r="H356" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13162,7 +12166,7 @@
         <v>1601.07925611</v>
       </c>
       <c r="H357" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13228,7 +12232,7 @@
         <v>1876.85305611</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13426,7 +12430,7 @@
         <v>1881.82845611</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13459,7 +12463,7 @@
         <v>1881.82845611</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13492,7 +12496,7 @@
         <v>1858.22845611</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13525,7 +12529,7 @@
         <v>1968.88505611</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13558,7 +12562,7 @@
         <v>1968.88505611</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13591,7 +12595,7 @@
         <v>1962.93925611</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13624,7 +12628,7 @@
         <v>1962.93925611</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13657,7 +12661,7 @@
         <v>1952.20975611</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13690,7 +12694,7 @@
         <v>1952.20975611</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13723,7 +12727,7 @@
         <v>1847.91839264</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13756,7 +12760,7 @@
         <v>1847.91839264</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13789,7 +12793,7 @@
         <v>1847.91839264</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13822,7 +12826,7 @@
         <v>1847.91839264</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13855,7 +12859,7 @@
         <v>1863.71719264</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13888,7 +12892,7 @@
         <v>1871.14519264</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13921,7 +12925,7 @@
         <v>1871.04611335</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13954,7 +12958,7 @@
         <v>1844.92491335</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13987,7 +12991,7 @@
         <v>1754.31281335</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14020,7 +13024,7 @@
         <v>1716.56711335</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14053,7 +13057,7 @@
         <v>1718.42231313</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14086,7 +13090,7 @@
         <v>1712.75431313</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14119,7 +13123,7 @@
         <v>1704.45871313</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14152,7 +13156,7 @@
         <v>1634.07111313</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14185,7 +13189,7 @@
         <v>1634.07111313</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14218,7 +13222,7 @@
         <v>1644.34931313</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14482,7 +13486,7 @@
         <v>1487.924413130001</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14515,7 +13519,7 @@
         <v>1487.924413130001</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14548,7 +13552,7 @@
         <v>1457.958913130001</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14581,7 +13585,7 @@
         <v>1440.689013130001</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14614,7 +13618,7 @@
         <v>1442.538713130001</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14647,7 +13651,7 @@
         <v>1442.538713130001</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14680,7 +13684,7 @@
         <v>1443.219541010001</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14713,7 +13717,7 @@
         <v>1443.219541010001</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14746,7 +13750,7 @@
         <v>1443.22254101</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14779,7 +13783,7 @@
         <v>1443.22254101</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14812,7 +13816,7 @@
         <v>1492.89774101</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14845,7 +13849,7 @@
         <v>1494.49774101</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14878,7 +13882,7 @@
         <v>1554.73574101</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14911,7 +13915,7 @@
         <v>1554.73574101</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14977,7 +13981,7 @@
         <v>1548.85824101</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15010,7 +14014,7 @@
         <v>1548.85824101</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15175,7 +14179,7 @@
         <v>1481.93904101</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15208,7 +14212,7 @@
         <v>1412.14314101</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15241,7 +14245,7 @@
         <v>1232.29254101</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15274,7 +14278,7 @@
         <v>1297.10444101</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15307,7 +14311,7 @@
         <v>1166.69254101</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15340,7 +14344,7 @@
         <v>1166.69254101</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -19828,395 +18832,347 @@
         <v>752.5291795099994</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
-      </c>
-      <c r="I559" t="n">
-        <v>179800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr">
+      <c r="K559" t="inlineStr"/>
+      <c r="L559" t="n">
+        <v>1</v>
+      </c>
+      <c r="M559" t="inlineStr"/>
+    </row>
+    <row r="560">
+      <c r="A560" s="1" t="n">
+        <v>558</v>
+      </c>
+      <c r="B560" t="n">
+        <v>179700</v>
+      </c>
+      <c r="C560" t="n">
+        <v>179300</v>
+      </c>
+      <c r="D560" t="n">
+        <v>179700</v>
+      </c>
+      <c r="E560" t="n">
+        <v>179300</v>
+      </c>
+      <c r="F560" t="n">
+        <v>16.5239</v>
+      </c>
+      <c r="G560" t="n">
+        <v>736.0052795099994</v>
+      </c>
+      <c r="H560" t="n">
+        <v>0</v>
+      </c>
+      <c r="I560" t="inlineStr"/>
+      <c r="J560" t="inlineStr"/>
+      <c r="K560" t="inlineStr"/>
+      <c r="L560" t="n">
+        <v>1</v>
+      </c>
+      <c r="M560" t="inlineStr"/>
+    </row>
+    <row r="561">
+      <c r="A561" s="1" t="n">
+        <v>559</v>
+      </c>
+      <c r="B561" t="n">
+        <v>179300</v>
+      </c>
+      <c r="C561" t="n">
+        <v>179300</v>
+      </c>
+      <c r="D561" t="n">
+        <v>179400</v>
+      </c>
+      <c r="E561" t="n">
+        <v>179300</v>
+      </c>
+      <c r="F561" t="n">
+        <v>37.8594</v>
+      </c>
+      <c r="G561" t="n">
+        <v>736.0052795099994</v>
+      </c>
+      <c r="H561" t="n">
+        <v>0</v>
+      </c>
+      <c r="I561" t="inlineStr"/>
+      <c r="J561" t="inlineStr"/>
+      <c r="K561" t="inlineStr"/>
+      <c r="L561" t="n">
+        <v>1</v>
+      </c>
+      <c r="M561" t="inlineStr"/>
+    </row>
+    <row r="562">
+      <c r="A562" s="1" t="n">
+        <v>560</v>
+      </c>
+      <c r="B562" t="n">
+        <v>179200</v>
+      </c>
+      <c r="C562" t="n">
+        <v>179000</v>
+      </c>
+      <c r="D562" t="n">
+        <v>179700</v>
+      </c>
+      <c r="E562" t="n">
+        <v>178900</v>
+      </c>
+      <c r="F562" t="n">
+        <v>255.9388</v>
+      </c>
+      <c r="G562" t="n">
+        <v>480.0664795099993</v>
+      </c>
+      <c r="H562" t="n">
+        <v>0</v>
+      </c>
+      <c r="I562" t="inlineStr"/>
+      <c r="J562" t="inlineStr"/>
+      <c r="K562" t="inlineStr"/>
+      <c r="L562" t="n">
+        <v>1</v>
+      </c>
+      <c r="M562" t="inlineStr"/>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="n">
+        <v>561</v>
+      </c>
+      <c r="B563" t="n">
+        <v>179000</v>
+      </c>
+      <c r="C563" t="n">
+        <v>178900</v>
+      </c>
+      <c r="D563" t="n">
+        <v>179000</v>
+      </c>
+      <c r="E563" t="n">
+        <v>178900</v>
+      </c>
+      <c r="F563" t="n">
+        <v>18.8983</v>
+      </c>
+      <c r="G563" t="n">
+        <v>461.1681795099993</v>
+      </c>
+      <c r="H563" t="n">
+        <v>0</v>
+      </c>
+      <c r="I563" t="inlineStr"/>
+      <c r="J563" t="inlineStr"/>
+      <c r="K563" t="inlineStr"/>
+      <c r="L563" t="n">
+        <v>1</v>
+      </c>
+      <c r="M563" t="inlineStr"/>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="n">
+        <v>562</v>
+      </c>
+      <c r="B564" t="n">
+        <v>178900</v>
+      </c>
+      <c r="C564" t="n">
+        <v>179600</v>
+      </c>
+      <c r="D564" t="n">
+        <v>179600</v>
+      </c>
+      <c r="E564" t="n">
+        <v>178800</v>
+      </c>
+      <c r="F564" t="n">
+        <v>192.8919</v>
+      </c>
+      <c r="G564" t="n">
+        <v>654.0600795099994</v>
+      </c>
+      <c r="H564" t="n">
+        <v>0</v>
+      </c>
+      <c r="I564" t="inlineStr"/>
+      <c r="J564" t="inlineStr"/>
+      <c r="K564" t="inlineStr"/>
+      <c r="L564" t="n">
+        <v>1</v>
+      </c>
+      <c r="M564" t="inlineStr"/>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="n">
+        <v>563</v>
+      </c>
+      <c r="B565" t="n">
+        <v>179500</v>
+      </c>
+      <c r="C565" t="n">
+        <v>179500</v>
+      </c>
+      <c r="D565" t="n">
+        <v>179500</v>
+      </c>
+      <c r="E565" t="n">
+        <v>179400</v>
+      </c>
+      <c r="F565" t="n">
+        <v>39.7965</v>
+      </c>
+      <c r="G565" t="n">
+        <v>614.2635795099993</v>
+      </c>
+      <c r="H565" t="n">
+        <v>0</v>
+      </c>
+      <c r="I565" t="inlineStr"/>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr"/>
+      <c r="L565" t="n">
+        <v>1</v>
+      </c>
+      <c r="M565" t="inlineStr"/>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="n">
+        <v>564</v>
+      </c>
+      <c r="B566" t="n">
+        <v>179600</v>
+      </c>
+      <c r="C566" t="n">
+        <v>179600</v>
+      </c>
+      <c r="D566" t="n">
+        <v>179600</v>
+      </c>
+      <c r="E566" t="n">
+        <v>179000</v>
+      </c>
+      <c r="F566" t="n">
+        <v>2.0791</v>
+      </c>
+      <c r="G566" t="n">
+        <v>616.3426795099994</v>
+      </c>
+      <c r="H566" t="n">
+        <v>0</v>
+      </c>
+      <c r="I566" t="inlineStr"/>
+      <c r="J566" t="inlineStr"/>
+      <c r="K566" t="inlineStr"/>
+      <c r="L566" t="n">
+        <v>1</v>
+      </c>
+      <c r="M566" t="inlineStr"/>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="n">
+        <v>565</v>
+      </c>
+      <c r="B567" t="n">
+        <v>179500</v>
+      </c>
+      <c r="C567" t="n">
+        <v>179400</v>
+      </c>
+      <c r="D567" t="n">
+        <v>179600</v>
+      </c>
+      <c r="E567" t="n">
+        <v>179400</v>
+      </c>
+      <c r="F567" t="n">
+        <v>23.9374</v>
+      </c>
+      <c r="G567" t="n">
+        <v>592.4052795099993</v>
+      </c>
+      <c r="H567" t="n">
+        <v>0</v>
+      </c>
+      <c r="I567" t="inlineStr"/>
+      <c r="J567" t="inlineStr"/>
+      <c r="K567" t="inlineStr"/>
+      <c r="L567" t="n">
+        <v>1</v>
+      </c>
+      <c r="M567" t="inlineStr"/>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="n">
+        <v>566</v>
+      </c>
+      <c r="B568" t="n">
+        <v>179600</v>
+      </c>
+      <c r="C568" t="n">
+        <v>179600</v>
+      </c>
+      <c r="D568" t="n">
+        <v>179600</v>
+      </c>
+      <c r="E568" t="n">
+        <v>179600</v>
+      </c>
+      <c r="F568" t="n">
+        <v>3.003</v>
+      </c>
+      <c r="G568" t="n">
+        <v>595.4082795099994</v>
+      </c>
+      <c r="H568" t="n">
+        <v>0</v>
+      </c>
+      <c r="I568" t="inlineStr"/>
+      <c r="J568" t="inlineStr"/>
+      <c r="K568" t="inlineStr"/>
+      <c r="L568" t="n">
+        <v>1</v>
+      </c>
+      <c r="M568" t="inlineStr"/>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="n">
+        <v>567</v>
+      </c>
+      <c r="B569" t="n">
+        <v>179300</v>
+      </c>
+      <c r="C569" t="n">
+        <v>179600</v>
+      </c>
+      <c r="D569" t="n">
+        <v>179600</v>
+      </c>
+      <c r="E569" t="n">
+        <v>179200</v>
+      </c>
+      <c r="F569" t="n">
+        <v>34.9281</v>
+      </c>
+      <c r="G569" t="n">
+        <v>595.4082795099994</v>
+      </c>
+      <c r="H569" t="n">
+        <v>1</v>
+      </c>
+      <c r="I569" t="n">
+        <v>179600</v>
+      </c>
+      <c r="J569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L559" t="n">
-        <v>1</v>
-      </c>
-      <c r="M559" t="inlineStr"/>
-    </row>
-    <row r="560">
-      <c r="A560" s="1" t="n">
-        <v>558</v>
-      </c>
-      <c r="B560" t="n">
-        <v>179700</v>
-      </c>
-      <c r="C560" t="n">
-        <v>179300</v>
-      </c>
-      <c r="D560" t="n">
-        <v>179700</v>
-      </c>
-      <c r="E560" t="n">
-        <v>179300</v>
-      </c>
-      <c r="F560" t="n">
-        <v>16.5239</v>
-      </c>
-      <c r="G560" t="n">
-        <v>736.0052795099994</v>
-      </c>
-      <c r="H560" t="n">
-        <v>2</v>
-      </c>
-      <c r="I560" t="n">
-        <v>179700</v>
-      </c>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L560" t="n">
-        <v>1</v>
-      </c>
-      <c r="M560" t="inlineStr"/>
-    </row>
-    <row r="561">
-      <c r="A561" s="1" t="n">
-        <v>559</v>
-      </c>
-      <c r="B561" t="n">
-        <v>179300</v>
-      </c>
-      <c r="C561" t="n">
-        <v>179300</v>
-      </c>
-      <c r="D561" t="n">
-        <v>179400</v>
-      </c>
-      <c r="E561" t="n">
-        <v>179300</v>
-      </c>
-      <c r="F561" t="n">
-        <v>37.8594</v>
-      </c>
-      <c r="G561" t="n">
-        <v>736.0052795099994</v>
-      </c>
-      <c r="H561" t="n">
-        <v>2</v>
-      </c>
-      <c r="I561" t="n">
-        <v>179300</v>
-      </c>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L561" t="n">
-        <v>1</v>
-      </c>
-      <c r="M561" t="inlineStr"/>
-    </row>
-    <row r="562">
-      <c r="A562" s="1" t="n">
-        <v>560</v>
-      </c>
-      <c r="B562" t="n">
-        <v>179200</v>
-      </c>
-      <c r="C562" t="n">
-        <v>179000</v>
-      </c>
-      <c r="D562" t="n">
-        <v>179700</v>
-      </c>
-      <c r="E562" t="n">
-        <v>178900</v>
-      </c>
-      <c r="F562" t="n">
-        <v>255.9388</v>
-      </c>
-      <c r="G562" t="n">
-        <v>480.0664795099993</v>
-      </c>
-      <c r="H562" t="n">
-        <v>2</v>
-      </c>
-      <c r="I562" t="n">
-        <v>179300</v>
-      </c>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L562" t="n">
-        <v>1</v>
-      </c>
-      <c r="M562" t="inlineStr"/>
-    </row>
-    <row r="563">
-      <c r="A563" s="1" t="n">
-        <v>561</v>
-      </c>
-      <c r="B563" t="n">
-        <v>179000</v>
-      </c>
-      <c r="C563" t="n">
-        <v>178900</v>
-      </c>
-      <c r="D563" t="n">
-        <v>179000</v>
-      </c>
-      <c r="E563" t="n">
-        <v>178900</v>
-      </c>
-      <c r="F563" t="n">
-        <v>18.8983</v>
-      </c>
-      <c r="G563" t="n">
-        <v>461.1681795099993</v>
-      </c>
-      <c r="H563" t="n">
-        <v>0</v>
-      </c>
-      <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L563" t="n">
-        <v>1</v>
-      </c>
-      <c r="M563" t="inlineStr"/>
-    </row>
-    <row r="564">
-      <c r="A564" s="1" t="n">
-        <v>562</v>
-      </c>
-      <c r="B564" t="n">
-        <v>178900</v>
-      </c>
-      <c r="C564" t="n">
-        <v>179600</v>
-      </c>
-      <c r="D564" t="n">
-        <v>179600</v>
-      </c>
-      <c r="E564" t="n">
-        <v>178800</v>
-      </c>
-      <c r="F564" t="n">
-        <v>192.8919</v>
-      </c>
-      <c r="G564" t="n">
-        <v>654.0600795099994</v>
-      </c>
-      <c r="H564" t="n">
-        <v>2</v>
-      </c>
-      <c r="I564" t="n">
-        <v>178900</v>
-      </c>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L564" t="n">
-        <v>1</v>
-      </c>
-      <c r="M564" t="inlineStr"/>
-    </row>
-    <row r="565">
-      <c r="A565" s="1" t="n">
-        <v>563</v>
-      </c>
-      <c r="B565" t="n">
-        <v>179500</v>
-      </c>
-      <c r="C565" t="n">
-        <v>179500</v>
-      </c>
-      <c r="D565" t="n">
-        <v>179500</v>
-      </c>
-      <c r="E565" t="n">
-        <v>179400</v>
-      </c>
-      <c r="F565" t="n">
-        <v>39.7965</v>
-      </c>
-      <c r="G565" t="n">
-        <v>614.2635795099993</v>
-      </c>
-      <c r="H565" t="n">
-        <v>0</v>
-      </c>
-      <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L565" t="n">
-        <v>1</v>
-      </c>
-      <c r="M565" t="inlineStr"/>
-    </row>
-    <row r="566">
-      <c r="A566" s="1" t="n">
-        <v>564</v>
-      </c>
-      <c r="B566" t="n">
-        <v>179600</v>
-      </c>
-      <c r="C566" t="n">
-        <v>179600</v>
-      </c>
-      <c r="D566" t="n">
-        <v>179600</v>
-      </c>
-      <c r="E566" t="n">
-        <v>179000</v>
-      </c>
-      <c r="F566" t="n">
-        <v>2.0791</v>
-      </c>
-      <c r="G566" t="n">
-        <v>616.3426795099994</v>
-      </c>
-      <c r="H566" t="n">
-        <v>0</v>
-      </c>
-      <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L566" t="n">
-        <v>1</v>
-      </c>
-      <c r="M566" t="inlineStr"/>
-    </row>
-    <row r="567">
-      <c r="A567" s="1" t="n">
-        <v>565</v>
-      </c>
-      <c r="B567" t="n">
-        <v>179500</v>
-      </c>
-      <c r="C567" t="n">
-        <v>179400</v>
-      </c>
-      <c r="D567" t="n">
-        <v>179600</v>
-      </c>
-      <c r="E567" t="n">
-        <v>179400</v>
-      </c>
-      <c r="F567" t="n">
-        <v>23.9374</v>
-      </c>
-      <c r="G567" t="n">
-        <v>592.4052795099993</v>
-      </c>
-      <c r="H567" t="n">
-        <v>0</v>
-      </c>
-      <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L567" t="n">
-        <v>1</v>
-      </c>
-      <c r="M567" t="inlineStr"/>
-    </row>
-    <row r="568">
-      <c r="A568" s="1" t="n">
-        <v>566</v>
-      </c>
-      <c r="B568" t="n">
-        <v>179600</v>
-      </c>
-      <c r="C568" t="n">
-        <v>179600</v>
-      </c>
-      <c r="D568" t="n">
-        <v>179600</v>
-      </c>
-      <c r="E568" t="n">
-        <v>179600</v>
-      </c>
-      <c r="F568" t="n">
-        <v>3.003</v>
-      </c>
-      <c r="G568" t="n">
-        <v>595.4082795099994</v>
-      </c>
-      <c r="H568" t="n">
-        <v>0</v>
-      </c>
-      <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L568" t="n">
-        <v>1</v>
-      </c>
-      <c r="M568" t="inlineStr"/>
-    </row>
-    <row r="569">
-      <c r="A569" s="1" t="n">
-        <v>567</v>
-      </c>
-      <c r="B569" t="n">
-        <v>179300</v>
-      </c>
-      <c r="C569" t="n">
-        <v>179600</v>
-      </c>
-      <c r="D569" t="n">
-        <v>179600</v>
-      </c>
-      <c r="E569" t="n">
-        <v>179200</v>
-      </c>
-      <c r="F569" t="n">
-        <v>34.9281</v>
-      </c>
-      <c r="G569" t="n">
-        <v>595.4082795099994</v>
-      </c>
-      <c r="H569" t="n">
-        <v>0</v>
-      </c>
-      <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20245,9 +19201,11 @@
         <v>595.4082795099994</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
-      </c>
-      <c r="I570" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I570" t="n">
+        <v>179600</v>
+      </c>
       <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr">
         <is>
@@ -20282,7 +19240,7 @@
         <v>595.4082795099994</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I571" t="n">
         <v>179600</v>
@@ -20321,9 +19279,11 @@
         <v>595.4082795099994</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
-      </c>
-      <c r="I572" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I572" t="n">
+        <v>179600</v>
+      </c>
       <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr">
         <is>
@@ -20358,7 +19318,7 @@
         <v>595.4082795099994</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I573" t="n">
         <v>179600</v>
@@ -20397,7 +19357,7 @@
         <v>588.3111795099994</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I574" t="n">
         <v>179600</v>
@@ -20436,7 +19396,7 @@
         <v>597.3141795099995</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I575" t="n">
         <v>179100</v>
@@ -20475,7 +19435,7 @@
         <v>636.5785455999994</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I576" t="n">
         <v>179600</v>
@@ -20514,11 +19474,9 @@
         <v>635.1267455999994</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
-      </c>
-      <c r="I577" t="n">
-        <v>179900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr">
         <is>
@@ -20553,11 +19511,9 @@
         <v>635.1267455999994</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
-      </c>
-      <c r="I578" t="n">
-        <v>179800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr">
         <is>
@@ -20592,11 +19548,9 @@
         <v>650.7238455999993</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
-      </c>
-      <c r="I579" t="n">
-        <v>179800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr">
         <is>
@@ -20631,11 +19585,9 @@
         <v>701.3136455999993</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
-      </c>
-      <c r="I580" t="n">
-        <v>180100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr">
         <is>
@@ -20670,11 +19622,9 @@
         <v>701.3136455999993</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
-      </c>
-      <c r="I581" t="n">
-        <v>180600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr">
         <is>
@@ -20709,11 +19659,9 @@
         <v>701.3136455999993</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
-      </c>
-      <c r="I582" t="n">
-        <v>180600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr">
         <is>
@@ -21636,11 +20584,9 @@
         <v>775.0588912899996</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
-      </c>
-      <c r="I607" t="n">
-        <v>181000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr">
         <is>
@@ -21675,11 +20621,9 @@
         <v>746.7470912899996</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
-      </c>
-      <c r="I608" t="n">
-        <v>181000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr">
         <is>
@@ -25044,16 +23988,18 @@
         <v>1674.77844376</v>
       </c>
       <c r="H699" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L699" t="inlineStr"/>
+      <c r="L699" t="n">
+        <v>1</v>
+      </c>
       <c r="M699" t="inlineStr"/>
     </row>
     <row r="700">
@@ -25079,11 +24025,15 @@
         <v>1539.15784376</v>
       </c>
       <c r="H700" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -25112,11 +24062,15 @@
         <v>1539.15784376</v>
       </c>
       <c r="H701" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -25149,7 +24103,11 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -25182,7 +24140,11 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -25215,7 +24177,11 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -25248,7 +24214,11 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -25281,7 +24251,11 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -25314,7 +24288,11 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -25347,7 +24325,11 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -25380,7 +24362,11 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -25413,7 +24399,11 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -25442,11 +24432,15 @@
         <v>1418.12824376</v>
       </c>
       <c r="H711" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -25479,7 +24473,11 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -25512,7 +24510,11 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -25545,7 +24547,11 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -25578,7 +24584,11 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -25611,7 +24621,11 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -25644,7 +24658,11 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -25677,7 +24695,11 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -25706,11 +24728,15 @@
         <v>1345.30381185</v>
       </c>
       <c r="H719" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -25739,11 +24765,15 @@
         <v>1378.34431185</v>
       </c>
       <c r="H720" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -25772,11 +24802,15 @@
         <v>1383.81751185</v>
       </c>
       <c r="H721" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -25805,11 +24839,15 @@
         <v>1418.92087391</v>
       </c>
       <c r="H722" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -25838,11 +24876,15 @@
         <v>1489.98897391</v>
       </c>
       <c r="H723" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -25871,11 +24913,15 @@
         <v>1414.25317391</v>
       </c>
       <c r="H724" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -25908,7 +24954,11 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -25941,7 +24991,11 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -25970,11 +25024,15 @@
         <v>1202.49867391</v>
       </c>
       <c r="H727" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -26003,11 +25061,15 @@
         <v>1202.49867391</v>
       </c>
       <c r="H728" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -26036,14 +25098,16 @@
         <v>1212.86467391</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
-      <c r="L729" t="n">
-        <v>1</v>
-      </c>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L729" t="inlineStr"/>
       <c r="M729" t="inlineStr"/>
     </row>
     <row r="730">
@@ -26135,7 +25199,7 @@
         <v>954.2110739100004</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -26168,7 +25232,7 @@
         <v>926.9692739100004</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -26201,7 +25265,7 @@
         <v>917.0174739100004</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -26234,7 +25298,7 @@
         <v>938.7638739100004</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -26267,7 +25331,7 @@
         <v>932.4623739100003</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -26300,7 +25364,7 @@
         <v>932.4623739100003</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -26333,7 +25397,7 @@
         <v>816.6090739100003</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -26465,7 +25529,7 @@
         <v>1025.31187391</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -26531,7 +25595,7 @@
         <v>1025.31487391</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -26564,7 +25628,7 @@
         <v>967.1014739100004</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -26597,7 +25661,7 @@
         <v>951.3901764200004</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -26630,7 +25694,7 @@
         <v>920.4447764200005</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -26663,7 +25727,7 @@
         <v>941.4315303600005</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -26729,7 +25793,7 @@
         <v>995.8326303600004</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -27620,7 +26684,7 @@
         <v>1069.27498622</v>
       </c>
       <c r="H777" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -28544,7 +27608,7 @@
         <v>1194.42128622</v>
       </c>
       <c r="H805" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -28742,7 +27806,7 @@
         <v>1269.50168622</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -29006,7 +28070,7 @@
         <v>1338.58518622</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -29039,7 +28103,7 @@
         <v>1397.50618622</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -29072,7 +28136,7 @@
         <v>1397.50618622</v>
       </c>
       <c r="H821" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -29105,7 +28169,7 @@
         <v>1410.68408622</v>
       </c>
       <c r="H822" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -29138,7 +28202,7 @@
         <v>1421.0209027</v>
       </c>
       <c r="H823" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -29171,7 +28235,7 @@
         <v>1421.0209027</v>
       </c>
       <c r="H824" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -29204,7 +28268,7 @@
         <v>1391.1407027</v>
       </c>
       <c r="H825" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -29237,7 +28301,7 @@
         <v>1391.1407027</v>
       </c>
       <c r="H826" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -29270,7 +28334,7 @@
         <v>1391.1317027</v>
       </c>
       <c r="H827" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -29303,7 +28367,7 @@
         <v>1374.0092027</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -29336,7 +28400,7 @@
         <v>1396.677202699999</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -29369,7 +28433,7 @@
         <v>1362.9153027</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -29402,7 +28466,7 @@
         <v>1405.341202699999</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -29435,7 +28499,7 @@
         <v>1406.3020027</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -29468,7 +28532,7 @@
         <v>1362.6650027</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -29501,7 +28565,7 @@
         <v>1367.8822027</v>
       </c>
       <c r="H834" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -29534,7 +28598,7 @@
         <v>1367.8792027</v>
       </c>
       <c r="H835" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -29567,7 +28631,7 @@
         <v>1331.32914608</v>
       </c>
       <c r="H836" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -29600,7 +28664,7 @@
         <v>1310.42184608</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -29633,7 +28697,7 @@
         <v>1310.42184608</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -29666,7 +28730,7 @@
         <v>1310.41884608</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -29699,7 +28763,7 @@
         <v>1189.73734608</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -29732,7 +28796,7 @@
         <v>1189.73734608</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -29765,7 +28829,7 @@
         <v>1189.73734608</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -29798,7 +28862,7 @@
         <v>1189.73734608</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -29831,7 +28895,7 @@
         <v>1190.23734608</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -29864,7 +28928,7 @@
         <v>1068.06014608</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -29897,7 +28961,7 @@
         <v>1068.06014608</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -29930,7 +28994,7 @@
         <v>1068.06314608</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -29963,7 +29027,7 @@
         <v>1047.86014608</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -29996,7 +29060,7 @@
         <v>988.5033460799996</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -30029,7 +29093,7 @@
         <v>988.5063460799996</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -30062,7 +29126,7 @@
         <v>972.4507460799996</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -30095,7 +29159,7 @@
         <v>972.4507460799996</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -30128,7 +29192,7 @@
         <v>928.6470460799995</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -30161,7 +29225,7 @@
         <v>928.6500460799996</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -30194,7 +29258,7 @@
         <v>1002.06034608</v>
       </c>
       <c r="H855" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -30227,7 +29291,7 @@
         <v>1002.06034608</v>
       </c>
       <c r="H856" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -30260,7 +29324,7 @@
         <v>969.4291460799996</v>
       </c>
       <c r="H857" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -30293,7 +29357,7 @@
         <v>973.1767460799996</v>
       </c>
       <c r="H858" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -30326,7 +29390,7 @@
         <v>953.1767460799996</v>
       </c>
       <c r="H859" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -30359,7 +29423,7 @@
         <v>953.1767460799996</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -30392,7 +29456,7 @@
         <v>731.9393460799996</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -30425,7 +29489,7 @@
         <v>622.1455460799996</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -30491,7 +29555,7 @@
         <v>622.3455460799996</v>
       </c>
       <c r="H864" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -30524,7 +29588,7 @@
         <v>622.3455460799996</v>
       </c>
       <c r="H865" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -30557,7 +29621,7 @@
         <v>596.1734460799996</v>
       </c>
       <c r="H866" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -32801,7 +31865,7 @@
         <v>1098.2535817</v>
       </c>
       <c r="H934" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -34264,6 +33328,6 @@
       <c r="M978" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>